--- a/P3 Socialidade/dados/dados.xlsx
+++ b/P3 Socialidade/dados/dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marmello/Documents/Ensino/Ecologia Animal/Praticas/EcoAnimal/P3 Socialidade/dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFC8ADD-19EC-4E40-B68A-7619536FAAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F409C5A-FA41-4E4D-B0D9-605BBF56CB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{F54A508E-A7CD-5A43-9D70-050053AF9575}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="1" xr2:uid="{F54A508E-A7CD-5A43-9D70-050053AF9575}"/>
   </bookViews>
   <sheets>
     <sheet name="metadados" sheetId="2" r:id="rId1"/>
@@ -775,7 +775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01EEEB3-C3FB-A046-9D5B-62FC3FAEDB70}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
